--- a/Assignment7/Transportation.xlsx
+++ b/Assignment7/Transportation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adesanya Aminat A\Desktop\LA 558\LA558_Abiola_Adesanya\Assignment7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58F502F-660E-41E2-95A8-C6D7EB4C247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7191D8-8B27-4B4A-BE68-1D12D2BA7BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{DB3252E9-1505-4241-8F1C-D698A1A975A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB3252E9-1505-4241-8F1C-D698A1A975A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
   <dimension ref="A1:AG121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,7 +2155,7 @@
         <v>1003</v>
       </c>
       <c r="AG2" s="1">
-        <f>AF2/L2</f>
+        <f t="shared" ref="AG2:AG33" si="0">AF2/L2</f>
         <v>4.1964771348479146E-2</v>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
         <v>4773</v>
       </c>
       <c r="AG3" s="1">
-        <f>AF3/L3</f>
+        <f t="shared" si="0"/>
         <v>4.5984430999267793E-2</v>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
         <v>1370</v>
       </c>
       <c r="AG4" s="1">
-        <f>AF4/L4</f>
+        <f t="shared" si="0"/>
         <v>4.823264328967751E-2</v>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
         <v>8890</v>
       </c>
       <c r="AG5" s="1">
-        <f>AF5/L5</f>
+        <f t="shared" si="0"/>
         <v>4.8929495294182397E-2</v>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
         <v>2652</v>
       </c>
       <c r="AG6" s="1">
-        <f>AF6/L6</f>
+        <f t="shared" si="0"/>
         <v>4.9196749897970543E-2</v>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
         <v>1816</v>
       </c>
       <c r="AG7" s="1">
-        <f>AF7/L7</f>
+        <f t="shared" si="0"/>
         <v>5.0314465408805034E-2</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
         <v>2835</v>
       </c>
       <c r="AG8" s="1">
-        <f>AF8/L8</f>
+        <f t="shared" si="0"/>
         <v>5.0867529112016217E-2</v>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
         <v>915</v>
       </c>
       <c r="AG9" s="1">
-        <f>AF9/L9</f>
+        <f t="shared" si="0"/>
         <v>5.1085924850650437E-2</v>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
         <v>1816</v>
       </c>
       <c r="AG10" s="1">
-        <f>AF10/L10</f>
+        <f t="shared" si="0"/>
         <v>5.1557221133918175E-2</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <v>483</v>
       </c>
       <c r="AG11" s="1">
-        <f>AF11/L11</f>
+        <f t="shared" si="0"/>
         <v>5.1824034334763951E-2</v>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
         <v>18857</v>
       </c>
       <c r="AG12" s="1">
-        <f>AF12/L12</f>
+        <f t="shared" si="0"/>
         <v>5.4420885244860794E-2</v>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
         <v>487</v>
       </c>
       <c r="AG13" s="1">
-        <f>AF13/L13</f>
+        <f t="shared" si="0"/>
         <v>5.44803669314241E-2</v>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
         <v>1754</v>
       </c>
       <c r="AG14" s="1">
-        <f>AF14/L14</f>
+        <f t="shared" si="0"/>
         <v>5.4504210559025511E-2</v>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
         <v>471</v>
       </c>
       <c r="AG15" s="1">
-        <f>AF15/L15</f>
+        <f t="shared" si="0"/>
         <v>5.5327146716786089E-2</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
         <v>1254</v>
       </c>
       <c r="AG16" s="1">
-        <f>AF16/L16</f>
+        <f t="shared" si="0"/>
         <v>5.5790363482671176E-2</v>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
         <v>3002</v>
       </c>
       <c r="AG17" s="1">
-        <f>AF17/L17</f>
+        <f t="shared" si="0"/>
         <v>5.5903165735567972E-2</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
         <v>1910</v>
       </c>
       <c r="AG18" s="1">
-        <f>AF18/L18</f>
+        <f t="shared" si="0"/>
         <v>5.6117052532612531E-2</v>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
         <v>670</v>
       </c>
       <c r="AG19" s="1">
-        <f>AF19/L19</f>
+        <f t="shared" si="0"/>
         <v>5.6823000593673144E-2</v>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
         <v>33312</v>
       </c>
       <c r="AG20" s="1">
-        <f>AF20/L20</f>
+        <f t="shared" si="0"/>
         <v>5.7615574469409889E-2</v>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
         <v>4916</v>
       </c>
       <c r="AG21" s="1">
-        <f>AF21/L21</f>
+        <f t="shared" si="0"/>
         <v>5.8643190304071384E-2</v>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
         <v>2449</v>
       </c>
       <c r="AG22" s="1">
-        <f>AF22/L22</f>
+        <f t="shared" si="0"/>
         <v>5.8824942352036898E-2</v>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
         <v>1105</v>
       </c>
       <c r="AG23" s="1">
-        <f>AF23/L23</f>
+        <f t="shared" si="0"/>
         <v>5.929702173329756E-2</v>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
         <v>1636</v>
       </c>
       <c r="AG24" s="1">
-        <f>AF24/L24</f>
+        <f t="shared" si="0"/>
         <v>5.9573228461146314E-2</v>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
         <v>1248</v>
       </c>
       <c r="AG25" s="1">
-        <f>AF25/L25</f>
+        <f t="shared" si="0"/>
         <v>5.9638726942559499E-2</v>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
         <v>1349</v>
       </c>
       <c r="AG26" s="1">
-        <f>AF26/L26</f>
+        <f t="shared" si="0"/>
         <v>5.9881036931818184E-2</v>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
         <v>1946</v>
       </c>
       <c r="AG27" s="1">
-        <f>AF27/L27</f>
+        <f t="shared" si="0"/>
         <v>6.0223439482561196E-2</v>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
         <v>2638</v>
       </c>
       <c r="AG28" s="1">
-        <f>AF28/L28</f>
+        <f t="shared" si="0"/>
         <v>6.0653438484353804E-2</v>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
         <v>1721</v>
       </c>
       <c r="AG29" s="1">
-        <f>AF29/L29</f>
+        <f t="shared" si="0"/>
         <v>6.1249911025695776E-2</v>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
         <v>3521</v>
       </c>
       <c r="AG30" s="1">
-        <f>AF30/L30</f>
+        <f t="shared" si="0"/>
         <v>6.1462460942273117E-2</v>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
         <v>6115</v>
       </c>
       <c r="AG31" s="1">
-        <f>AF31/L31</f>
+        <f t="shared" si="0"/>
         <v>6.1953537379816216E-2</v>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
         <v>1573</v>
       </c>
       <c r="AG32" s="1">
-        <f>AF32/L32</f>
+        <f t="shared" si="0"/>
         <v>6.2616934039250033E-2</v>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
         <v>2716</v>
       </c>
       <c r="AG33" s="1">
-        <f>AF33/L33</f>
+        <f t="shared" si="0"/>
         <v>6.2693319791330041E-2</v>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
         <v>2022</v>
       </c>
       <c r="AG34" s="1">
-        <f>AF34/L34</f>
+        <f t="shared" ref="AG34:AG65" si="1">AF34/L34</f>
         <v>6.3280443150877858E-2</v>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
         <v>14510</v>
       </c>
       <c r="AG35" s="1">
-        <f>AF35/L35</f>
+        <f t="shared" si="1"/>
         <v>6.3793399075853033E-2</v>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
         <v>1096</v>
       </c>
       <c r="AG36" s="1">
-        <f>AF36/L36</f>
+        <f t="shared" si="1"/>
         <v>6.4134823570718008E-2</v>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
         <v>1372</v>
       </c>
       <c r="AG37" s="1">
-        <f>AF37/L37</f>
+        <f t="shared" si="1"/>
         <v>6.4622485987471154E-2</v>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
         <v>20726</v>
       </c>
       <c r="AG38" s="1">
-        <f>AF38/L38</f>
+        <f t="shared" si="1"/>
         <v>6.5820228144610152E-2</v>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
         <v>1207</v>
       </c>
       <c r="AG39" s="1">
-        <f>AF39/L39</f>
+        <f t="shared" si="1"/>
         <v>6.6289543057996489E-2</v>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
         <v>2738</v>
       </c>
       <c r="AG40" s="1">
-        <f>AF40/L40</f>
+        <f t="shared" si="1"/>
         <v>6.6514430084539888E-2</v>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
         <v>501</v>
       </c>
       <c r="AG41" s="1">
-        <f>AF41/L41</f>
+        <f t="shared" si="1"/>
         <v>6.6844563042028016E-2</v>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
         <v>14710</v>
       </c>
       <c r="AG42" s="1">
-        <f>AF42/L42</f>
+        <f t="shared" si="1"/>
         <v>6.6991224195171714E-2</v>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
         <v>1786</v>
       </c>
       <c r="AG43" s="1">
-        <f>AF43/L43</f>
+        <f t="shared" si="1"/>
         <v>6.7183268131206744E-2</v>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
         <v>3635</v>
       </c>
       <c r="AG44" s="1">
-        <f>AF44/L44</f>
+        <f t="shared" si="1"/>
         <v>6.7464736451373422E-2</v>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
         <v>1014</v>
       </c>
       <c r="AG45" s="1">
-        <f>AF45/L45</f>
+        <f t="shared" si="1"/>
         <v>6.7894208235687981E-2</v>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
         <v>3861</v>
       </c>
       <c r="AG46" s="1">
-        <f>AF46/L46</f>
+        <f t="shared" si="1"/>
         <v>6.827224019945892E-2</v>
       </c>
     </row>
@@ -6610,7 +6610,7 @@
         <v>27593</v>
       </c>
       <c r="AG47" s="1">
-        <f>AF47/L47</f>
+        <f t="shared" si="1"/>
         <v>6.8436377705906867E-2</v>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
         <v>564</v>
       </c>
       <c r="AG48" s="1">
-        <f>AF48/L48</f>
+        <f t="shared" si="1"/>
         <v>6.9126118396862363E-2</v>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
         <v>846</v>
       </c>
       <c r="AG49" s="1">
-        <f>AF49/L49</f>
+        <f t="shared" si="1"/>
         <v>7.1356275303643718E-2</v>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
         <v>13676</v>
       </c>
       <c r="AG50" s="1">
-        <f>AF50/L50</f>
+        <f t="shared" si="1"/>
         <v>7.158972533541326E-2</v>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
         <v>7362</v>
       </c>
       <c r="AG51" s="1">
-        <f>AF51/L51</f>
+        <f t="shared" si="1"/>
         <v>7.2935139044373334E-2</v>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
         <v>2008</v>
       </c>
       <c r="AG52" s="1">
-        <f>AF52/L52</f>
+        <f t="shared" si="1"/>
         <v>7.3103247415174016E-2</v>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
         <v>5427</v>
       </c>
       <c r="AG53" s="1">
-        <f>AF53/L53</f>
+        <f t="shared" si="1"/>
         <v>7.3567487698084563E-2</v>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
         <v>34336</v>
       </c>
       <c r="AG54" s="1">
-        <f>AF54/L54</f>
+        <f t="shared" si="1"/>
         <v>7.5535453441509304E-2</v>
       </c>
     </row>
@@ -7402,7 +7402,7 @@
         <v>58205</v>
       </c>
       <c r="AG55" s="1">
-        <f>AF55/L55</f>
+        <f t="shared" si="1"/>
         <v>7.6491120170105842E-2</v>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
         <v>2446</v>
       </c>
       <c r="AG56" s="1">
-        <f>AF56/L56</f>
+        <f t="shared" si="1"/>
         <v>7.6995718962477963E-2</v>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
         <v>1025</v>
       </c>
       <c r="AG57" s="1">
-        <f>AF57/L57</f>
+        <f t="shared" si="1"/>
         <v>7.7457870475326832E-2</v>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
         <v>87267</v>
       </c>
       <c r="AG58" s="1">
-        <f>AF58/L58</f>
+        <f t="shared" si="1"/>
         <v>7.7502326837135607E-2</v>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
         <v>72421</v>
       </c>
       <c r="AG59" s="1">
-        <f>AF59/L59</f>
+        <f t="shared" si="1"/>
         <v>7.8206565286785837E-2</v>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
         <v>2418</v>
       </c>
       <c r="AG60" s="1">
-        <f>AF60/L60</f>
+        <f t="shared" si="1"/>
         <v>7.8435188789412219E-2</v>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
         <v>2351</v>
       </c>
       <c r="AG61" s="1">
-        <f>AF61/L61</f>
+        <f t="shared" si="1"/>
         <v>7.864980596815202E-2</v>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
         <v>81801</v>
       </c>
       <c r="AG62" s="1">
-        <f>AF62/L62</f>
+        <f t="shared" si="1"/>
         <v>8.0174735661835334E-2</v>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
         <v>16935</v>
       </c>
       <c r="AG63" s="1">
-        <f>AF63/L63</f>
+        <f t="shared" si="1"/>
         <v>8.0630570579721186E-2</v>
       </c>
     </row>
@@ -8293,7 +8293,7 @@
         <v>640</v>
       </c>
       <c r="AG64" s="1">
-        <f>AF64/L64</f>
+        <f t="shared" si="1"/>
         <v>8.0675658641119377E-2</v>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
         <v>18127</v>
       </c>
       <c r="AG65" s="1">
-        <f>AF65/L65</f>
+        <f t="shared" si="1"/>
         <v>8.1896259617513248E-2</v>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
         <v>6122</v>
       </c>
       <c r="AG66" s="1">
-        <f>AF66/L66</f>
+        <f t="shared" ref="AG66:AG97" si="2">AF66/L66</f>
         <v>8.3993030307187841E-2</v>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
         <v>4636</v>
       </c>
       <c r="AG67" s="1">
-        <f>AF67/L67</f>
+        <f t="shared" si="2"/>
         <v>8.4564590857684876E-2</v>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
         <v>15456</v>
       </c>
       <c r="AG68" s="1">
-        <f>AF68/L68</f>
+        <f t="shared" si="2"/>
         <v>8.4697372386771511E-2</v>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
         <v>12742</v>
       </c>
       <c r="AG69" s="1">
-        <f>AF69/L69</f>
+        <f t="shared" si="2"/>
         <v>8.6731603057591908E-2</v>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
         <v>1664</v>
       </c>
       <c r="AG70" s="1">
-        <f>AF70/L70</f>
+        <f t="shared" si="2"/>
         <v>8.7202599308248613E-2</v>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
         <v>7006</v>
       </c>
       <c r="AG71" s="1">
-        <f>AF71/L71</f>
+        <f t="shared" si="2"/>
         <v>8.8928943159604992E-2</v>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
         <v>1492</v>
       </c>
       <c r="AG72" s="1">
-        <f>AF72/L72</f>
+        <f t="shared" si="2"/>
         <v>8.9229113091322296E-2</v>
       </c>
     </row>
@@ -9184,7 +9184,7 @@
         <v>8477</v>
       </c>
       <c r="AG73" s="1">
-        <f>AF73/L73</f>
+        <f t="shared" si="2"/>
         <v>9.1108412239502168E-2</v>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
         <v>1896</v>
       </c>
       <c r="AG74" s="1">
-        <f>AF74/L74</f>
+        <f t="shared" si="2"/>
         <v>9.1656192594024938E-2</v>
       </c>
     </row>
@@ -9382,7 +9382,7 @@
         <v>6324</v>
       </c>
       <c r="AG75" s="1">
-        <f>AF75/L75</f>
+        <f t="shared" si="2"/>
         <v>9.2080548639322066E-2</v>
       </c>
     </row>
@@ -9481,7 +9481,7 @@
         <v>1484</v>
       </c>
       <c r="AG76" s="1">
-        <f>AF76/L76</f>
+        <f t="shared" si="2"/>
         <v>9.2628425191935579E-2</v>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
         <v>4616</v>
       </c>
       <c r="AG77" s="1">
-        <f>AF77/L77</f>
+        <f t="shared" si="2"/>
         <v>9.3697351060590683E-2</v>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
         <v>1991</v>
       </c>
       <c r="AG78" s="1">
-        <f>AF78/L78</f>
+        <f t="shared" si="2"/>
         <v>9.3804475853945815E-2</v>
       </c>
     </row>
@@ -9778,7 +9778,7 @@
         <v>686</v>
       </c>
       <c r="AG79" s="1">
-        <f>AF79/L79</f>
+        <f t="shared" si="2"/>
         <v>9.4777562862669251E-2</v>
       </c>
     </row>
@@ -9877,7 +9877,7 @@
         <v>34785</v>
       </c>
       <c r="AG80" s="1">
-        <f>AF80/L80</f>
+        <f t="shared" si="2"/>
         <v>9.5230925069126948E-2</v>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
         <v>15305</v>
       </c>
       <c r="AG81" s="1">
-        <f>AF81/L81</f>
+        <f t="shared" si="2"/>
         <v>9.6111578603634715E-2</v>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
         <v>3646</v>
       </c>
       <c r="AG82" s="1">
-        <f>AF82/L82</f>
+        <f t="shared" si="2"/>
         <v>9.6908805783696136E-2</v>
       </c>
     </row>
@@ -10174,7 +10174,7 @@
         <v>14309</v>
       </c>
       <c r="AG83" s="1">
-        <f>AF83/L83</f>
+        <f t="shared" si="2"/>
         <v>9.895163409540407E-2</v>
       </c>
     </row>
@@ -10273,7 +10273,7 @@
         <v>68809</v>
       </c>
       <c r="AG84" s="1">
-        <f>AF84/L84</f>
+        <f t="shared" si="2"/>
         <v>0.10001729724072672</v>
       </c>
     </row>
@@ -10372,7 +10372,7 @@
         <v>20863</v>
       </c>
       <c r="AG85" s="1">
-        <f>AF85/L85</f>
+        <f t="shared" si="2"/>
         <v>0.10054797029297374</v>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
         <v>43068</v>
       </c>
       <c r="AG86" s="1">
-        <f>AF86/L86</f>
+        <f t="shared" si="2"/>
         <v>0.10706614693130742</v>
       </c>
     </row>
@@ -10570,7 +10570,7 @@
         <v>6300</v>
       </c>
       <c r="AG87" s="1">
-        <f>AF87/L87</f>
+        <f t="shared" si="2"/>
         <v>0.10918354967851511</v>
       </c>
     </row>
@@ -10669,7 +10669,7 @@
         <v>519498</v>
       </c>
       <c r="AG88" s="1">
-        <f>AF88/L88</f>
+        <f t="shared" si="2"/>
         <v>0.10927832275745084</v>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
         <v>14090</v>
       </c>
       <c r="AG89" s="1">
-        <f>AF89/L89</f>
+        <f t="shared" si="2"/>
         <v>0.10930530235444708</v>
       </c>
     </row>
@@ -10867,7 +10867,7 @@
         <v>13492</v>
       </c>
       <c r="AG90" s="1">
-        <f>AF90/L90</f>
+        <f t="shared" si="2"/>
         <v>0.11021885288086855</v>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
         <v>757</v>
       </c>
       <c r="AG91" s="1">
-        <f>AF91/L91</f>
+        <f t="shared" si="2"/>
         <v>0.11088325765343489</v>
       </c>
     </row>
@@ -11065,7 +11065,7 @@
         <v>27758</v>
       </c>
       <c r="AG92" s="1">
-        <f>AF92/L92</f>
+        <f t="shared" si="2"/>
         <v>0.11320554649265906</v>
       </c>
     </row>
@@ -11164,7 +11164,7 @@
         <v>1697</v>
       </c>
       <c r="AG93" s="1">
-        <f>AF93/L93</f>
+        <f t="shared" si="2"/>
         <v>0.11443020903573836</v>
       </c>
     </row>
@@ -11263,7 +11263,7 @@
         <v>3322</v>
       </c>
       <c r="AG94" s="1">
-        <f>AF94/L94</f>
+        <f t="shared" si="2"/>
         <v>0.11595113438045375</v>
       </c>
     </row>
@@ -11362,7 +11362,7 @@
         <v>9924</v>
       </c>
       <c r="AG95" s="1">
-        <f>AF95/L95</f>
+        <f t="shared" si="2"/>
         <v>0.11616256203764397</v>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
         <v>1922</v>
       </c>
       <c r="AG96" s="1">
-        <f>AF96/L96</f>
+        <f t="shared" si="2"/>
         <v>0.11728809422102887</v>
       </c>
     </row>
@@ -11560,7 +11560,7 @@
         <v>144950</v>
       </c>
       <c r="AG97" s="1">
-        <f>AF97/L97</f>
+        <f t="shared" si="2"/>
         <v>0.11753649347974512</v>
       </c>
     </row>
@@ -11659,7 +11659,7 @@
         <v>87333</v>
       </c>
       <c r="AG98" s="1">
-        <f>AF98/L98</f>
+        <f t="shared" ref="AG98:AG129" si="3">AF98/L98</f>
         <v>0.12208702508198967</v>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
         <v>191060</v>
       </c>
       <c r="AG99" s="1">
-        <f>AF99/L99</f>
+        <f t="shared" si="3"/>
         <v>0.12228199998207948</v>
       </c>
     </row>
@@ -11857,7 +11857,7 @@
         <v>201635</v>
       </c>
       <c r="AG100" s="1">
-        <f>AF100/L100</f>
+        <f t="shared" si="3"/>
         <v>0.12457778488978077</v>
       </c>
     </row>
@@ -11956,7 +11956,7 @@
         <v>12396</v>
       </c>
       <c r="AG101" s="1">
-        <f>AF101/L101</f>
+        <f t="shared" si="3"/>
         <v>0.12502899793232133</v>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
         <v>61130</v>
       </c>
       <c r="AG102" s="1">
-        <f>AF102/L102</f>
+        <f t="shared" si="3"/>
         <v>0.12583704380726532</v>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
         <v>1369</v>
       </c>
       <c r="AG103" s="1">
-        <f>AF103/L103</f>
+        <f t="shared" si="3"/>
         <v>0.12749115291488172</v>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
         <v>18430</v>
       </c>
       <c r="AG104" s="1">
-        <f>AF104/L104</f>
+        <f t="shared" si="3"/>
         <v>0.13947223042053564</v>
       </c>
     </row>
@@ -12352,7 +12352,7 @@
         <v>79167</v>
       </c>
       <c r="AG105" s="1">
-        <f>AF105/L105</f>
+        <f t="shared" si="3"/>
         <v>0.14302050815123135</v>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
         <v>3517</v>
       </c>
       <c r="AG106" s="1">
-        <f>AF106/L106</f>
+        <f t="shared" si="3"/>
         <v>0.14334039778284968</v>
       </c>
     </row>
@@ -12550,7 +12550,7 @@
         <v>7367</v>
       </c>
       <c r="AG107" s="1">
-        <f>AF107/L107</f>
+        <f t="shared" si="3"/>
         <v>0.14513110458816808</v>
       </c>
     </row>
@@ -12649,7 +12649,7 @@
         <v>434</v>
       </c>
       <c r="AG108" s="1">
-        <f>AF108/L108</f>
+        <f t="shared" si="3"/>
         <v>0.14573539288112827</v>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
         <v>59555</v>
       </c>
       <c r="AG109" s="1">
-        <f>AF109/L109</f>
+        <f t="shared" si="3"/>
         <v>0.14870570727285892</v>
       </c>
     </row>
@@ -12847,7 +12847,7 @@
         <v>12898</v>
       </c>
       <c r="AG110" s="1">
-        <f>AF110/L110</f>
+        <f t="shared" si="3"/>
         <v>0.15086615278443849</v>
       </c>
     </row>
@@ -12946,7 +12946,7 @@
         <v>151857</v>
       </c>
       <c r="AG111" s="1">
-        <f>AF111/L111</f>
+        <f t="shared" si="3"/>
         <v>0.15510252023593699</v>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
         <v>29632</v>
       </c>
       <c r="AG112" s="1">
-        <f>AF112/L112</f>
+        <f t="shared" si="3"/>
         <v>0.16180501709131018</v>
       </c>
     </row>
@@ -13144,7 +13144,7 @@
         <v>133693</v>
       </c>
       <c r="AG113" s="1">
-        <f>AF113/L113</f>
+        <f t="shared" si="3"/>
         <v>0.16361088675135227</v>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
         <v>353</v>
       </c>
       <c r="AG114" s="1">
-        <f>AF114/L114</f>
+        <f t="shared" si="3"/>
         <v>0.16479925303454715</v>
       </c>
     </row>
@@ -13342,7 +13342,7 @@
         <v>150605</v>
       </c>
       <c r="AG115" s="1">
-        <f>AF115/L115</f>
+        <f t="shared" si="3"/>
         <v>0.16980751277460324</v>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
         <v>90163</v>
       </c>
       <c r="AG116" s="1">
-        <f>AF116/L116</f>
+        <f t="shared" si="3"/>
         <v>0.18020202100954544</v>
       </c>
     </row>
@@ -13540,7 +13540,7 @@
         <v>241</v>
       </c>
       <c r="AG117" s="1">
-        <f>AF117/L117</f>
+        <f t="shared" si="3"/>
         <v>0.18065967016491755</v>
       </c>
     </row>
@@ -13639,7 +13639,7 @@
         <v>8847</v>
       </c>
       <c r="AG118" s="1">
-        <f>AF118/L118</f>
+        <f t="shared" si="3"/>
         <v>0.19264436895740789</v>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
         <v>28054</v>
       </c>
       <c r="AG119" s="1">
-        <f>AF119/L119</f>
+        <f t="shared" si="3"/>
         <v>0.21924210098547192</v>
       </c>
     </row>
@@ -13837,7 +13837,7 @@
         <v>140</v>
       </c>
       <c r="AG120" s="1">
-        <f>AF120/L120</f>
+        <f t="shared" si="3"/>
         <v>0.2723735408560311</v>
       </c>
     </row>
@@ -13936,16 +13936,12 @@
         <v>1500</v>
       </c>
       <c r="AG121" s="1">
-        <f>AF121/L121</f>
+        <f t="shared" si="3"/>
         <v>0.2788622420524261</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG121" xr:uid="{DF0F5F97-9A1A-418D-8D97-080B8B91520A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG121">
-      <sortCondition ref="AG1:AG121"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AG121" xr:uid="{DF0F5F97-9A1A-418D-8D97-080B8B91520A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>